--- a/kmeans_data.xlsx
+++ b/kmeans_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cae1c14c3c8593/Documents/Machine Learning/project/kmeans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{992ABF28-5AA9-4B4D-9DE8-E26EB7F69B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9047A2-98BA-46E1-AE20-85B41D3C7AD9}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{992ABF28-5AA9-4B4D-9DE8-E26EB7F69B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F5FB9E8-6212-4A87-A11E-31E287AD2A67}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BD65D5CB-F4AF-49E4-862F-BE31A7125398}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <t>Total Registered Commercial Vehicles (2018)</t>
   </si>
   <si>
-    <t>Registered EVs from 2011-2018</t>
-  </si>
-  <si>
-    <t>Registered HEVs from 2011-2018</t>
-  </si>
-  <si>
-    <t>Registered PHEVs from 2011-2018</t>
+    <t>Total EV Sales from 2011-2018</t>
+  </si>
+  <si>
+    <t>Total HEV Sales from 2011-2018</t>
+  </si>
+  <si>
+    <t>Total PHEV Sales from 2011-2018</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="B2:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.25" customHeight="1" x14ac:dyDescent="0.45"/>
